--- a/Alcohol Consumption.xlsx
+++ b/Alcohol Consumption.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angel/Data_Analytics_Final_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F85DF96D-8829-6549-B823-AB75393D6F1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF7A314-2A24-3840-960F-C323E0D1E002}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{0F11A75F-BABB-9D42-89C1-0EE26CEC7256}"/>
   </bookViews>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Spirits</t>
-  </si>
-  <si>
-    <t>All beverages</t>
   </si>
   <si>
     <t>Prohibition</t>
@@ -192,6 +189,9 @@
   </si>
   <si>
     <t>[Gallons of ethanol, based on population age 15 and older prior to 1970 and on population age 14 and older thereafter.]</t>
+  </si>
+  <si>
+    <t>All beverages in Gallons</t>
   </si>
 </sst>
 </file>
@@ -616,7 +616,7 @@
   <dimension ref="A1:E122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -642,7 +642,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2058,12 +2058,12 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B86" s="2">
         <v>1.08</v>
@@ -2080,7 +2080,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B87" s="2">
         <v>1.48</v>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B88" s="2">
         <v>1.47</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B89" s="2">
         <v>1.31</v>
@@ -2131,7 +2131,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B90" s="2">
         <v>1.19</v>
@@ -2148,7 +2148,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B91" s="2">
         <v>1.17</v>
@@ -2165,7 +2165,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B92" s="2">
         <v>0.9</v>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B93" s="2">
         <v>0.56000000000000005</v>
@@ -2250,22 +2250,22 @@
     </row>
     <row r="97" spans="1:1" ht="17">
       <c r="A97" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="17">
       <c r="A98" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="17">
       <c r="A99" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="17">
@@ -2273,7 +2273,7 @@
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="17">
@@ -2281,7 +2281,7 @@
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="17">
@@ -2289,7 +2289,7 @@
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="17">
@@ -2297,7 +2297,7 @@
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="17">
@@ -2305,12 +2305,12 @@
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="17">
@@ -2318,7 +2318,7 @@
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="17">
@@ -2326,22 +2326,22 @@
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="17">
       <c r="A116" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="17">
       <c r="A121" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="17">
       <c r="A122" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
